--- a/metrics/R2/average & upto/Macroalbuminuria.xlsx
+++ b/metrics/R2/average & upto/Macroalbuminuria.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4074269729916662</v>
+        <v>0.3242335358922129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4074269729916662</v>
+        <v>0.3242335358922129</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4074269729916662</v>
+        <v>0.3242335358922129</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9974286505492307</v>
+        <v>0.9872311464153658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.997507404488586</v>
+        <v>0.9878710539461674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.997423461442377</v>
+        <v>0.9867824194631443</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9982597509270033</v>
+        <v>0.9822715510869077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9982572263090337</v>
+        <v>0.9823138141465684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9982613348430259</v>
+        <v>0.982319367591496</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9448056265828719</v>
+        <v>0.9335700300854356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9502533700501082</v>
+        <v>0.9326951764294982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9531302648077358</v>
+        <v>0.9409610735484628</v>
       </c>
     </row>
   </sheetData>
